--- a/cp1/zinoview_fb-06_datsenko_fb-06_cp1/tables.xlsx
+++ b/cp1/zinoview_fb-06_datsenko_fb-06_cp1/tables.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\КПІ Season IIl\Крипта\1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B9222-1088-4BF2-AE27-21429AFC0F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Symbols" sheetId="1" r:id="rId1"/>
     <sheet name="Letters" sheetId="2" r:id="rId2"/>
     <sheet name="Bigrams" sheetId="3" r:id="rId3"/>
     <sheet name="Bigrams_no_spaces" sheetId="4" r:id="rId4"/>
+    <sheet name="Bigrams_step_2" sheetId="5" r:id="rId5"/>
+    <sheet name="Bigrams_no_spaces_step_2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="164">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -226,7 +234,7 @@
     <t>Symbols</t>
   </si>
   <si>
-    <t>Frequency</t>
+    <t>Probability</t>
   </si>
   <si>
     <t>0.11336</t>
@@ -358,34 +366,34 @@
     <t xml:space="preserve"> о</t>
   </si>
   <si>
-    <t>0.0211353146</t>
-  </si>
-  <si>
-    <t>0.0180921243</t>
-  </si>
-  <si>
-    <t>0.0174732193</t>
-  </si>
-  <si>
-    <t>0.0168232246</t>
-  </si>
-  <si>
-    <t>0.0160539315</t>
-  </si>
-  <si>
-    <t>0.0154986523</t>
-  </si>
-  <si>
-    <t>0.0151241280</t>
-  </si>
-  <si>
-    <t>0.0148877006</t>
-  </si>
-  <si>
-    <t>0.0136737503</t>
-  </si>
-  <si>
-    <t>0.0120042976</t>
+    <t>0.0211353299</t>
+  </si>
+  <si>
+    <t>0.0180921374</t>
+  </si>
+  <si>
+    <t>0.0174732320</t>
+  </si>
+  <si>
+    <t>0.0168232367</t>
+  </si>
+  <si>
+    <t>0.0160539431</t>
+  </si>
+  <si>
+    <t>0.0154986635</t>
+  </si>
+  <si>
+    <t>0.0151241390</t>
+  </si>
+  <si>
+    <t>0.0148877113</t>
+  </si>
+  <si>
+    <t>0.0136737602</t>
+  </si>
+  <si>
+    <t>0.0120043063</t>
   </si>
   <si>
     <t>Bigrams</t>
@@ -418,41 +426,104 @@
     <t>ко</t>
   </si>
   <si>
-    <t>0.0166539054</t>
-  </si>
-  <si>
-    <t>0.0130519399</t>
-  </si>
-  <si>
-    <t>0.0128211997</t>
-  </si>
-  <si>
-    <t>0.0116165117</t>
-  </si>
-  <si>
-    <t>0.0108594767</t>
-  </si>
-  <si>
-    <t>0.0108542915</t>
-  </si>
-  <si>
-    <t>0.0107307116</t>
-  </si>
-  <si>
-    <t>0.0104100952</t>
-  </si>
-  <si>
-    <t>0.0101879970</t>
-  </si>
-  <si>
-    <t>0.0101620712</t>
+    <t>0.0166539198</t>
+  </si>
+  <si>
+    <t>0.0130519511</t>
+  </si>
+  <si>
+    <t>0.0128212108</t>
+  </si>
+  <si>
+    <t>0.0116165217</t>
+  </si>
+  <si>
+    <t>0.0108594861</t>
+  </si>
+  <si>
+    <t>0.0108543009</t>
+  </si>
+  <si>
+    <t>0.0107307209</t>
+  </si>
+  <si>
+    <t>0.0104101042</t>
+  </si>
+  <si>
+    <t>0.0101880058</t>
+  </si>
+  <si>
+    <t>0.0101620799</t>
+  </si>
+  <si>
+    <t>0.0212191849</t>
+  </si>
+  <si>
+    <t>0.0182041924</t>
+  </si>
+  <si>
+    <t>0.0175173236</t>
+  </si>
+  <si>
+    <t>0.0167162176</t>
+  </si>
+  <si>
+    <t>0.0158616082</t>
+  </si>
+  <si>
+    <t>0.0155883067</t>
+  </si>
+  <si>
+    <t>0.0151125597</t>
+  </si>
+  <si>
+    <t>0.0148522726</t>
+  </si>
+  <si>
+    <t>0.0136563979</t>
+  </si>
+  <si>
+    <t>0.0119211504</t>
+  </si>
+  <si>
+    <t>но</t>
+  </si>
+  <si>
+    <t>0.0165389674</t>
+  </si>
+  <si>
+    <t>0.0131115693</t>
+  </si>
+  <si>
+    <t>0.0128453972</t>
+  </si>
+  <si>
+    <t>0.0114920676</t>
+  </si>
+  <si>
+    <t>0.0110029331</t>
+  </si>
+  <si>
+    <t>0.0107471313</t>
+  </si>
+  <si>
+    <t>0.0106970080</t>
+  </si>
+  <si>
+    <t>0.0104982431</t>
+  </si>
+  <si>
+    <t>0.0101940464</t>
+  </si>
+  <si>
+    <t>0.0101871328</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,17 +582,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -559,9 +638,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,9 +672,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,9 +724,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -802,14 +917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -817,7 +932,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -828,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -839,7 +954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -850,7 +965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -861,7 +976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -872,7 +987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -883,7 +998,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -894,7 +1009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -905,7 +1020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -916,7 +1031,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -927,7 +1042,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -938,7 +1053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -949,7 +1064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -960,7 +1075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -971,7 +1086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -982,7 +1097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -993,7 +1108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1004,7 +1119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1015,7 +1130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1026,7 +1141,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1037,7 +1152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1048,7 +1163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1059,7 +1174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1070,7 +1185,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1081,7 +1196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1092,7 +1207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1103,7 +1218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1114,7 +1229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1125,7 +1240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1136,7 +1251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1147,7 +1262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1158,7 +1273,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1169,7 +1284,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1180,7 +1295,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1197,14 +1312,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -1212,7 +1327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1223,7 +1338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1234,7 +1349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1245,7 +1360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1256,7 +1371,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1267,7 +1382,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1278,7 +1393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1289,7 +1404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1300,7 +1415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1311,7 +1426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1322,7 +1437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1333,7 +1448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1344,7 +1459,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1355,7 +1470,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1366,7 +1481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1377,7 +1492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1388,7 +1503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1399,7 +1514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1410,7 +1525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1421,7 +1536,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1432,7 +1547,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1443,7 +1558,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1454,7 +1569,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1465,7 +1580,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1476,7 +1591,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1487,7 +1602,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1498,7 +1613,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1509,7 +1624,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1520,7 +1635,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1531,7 +1646,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1542,7 +1657,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1553,7 +1668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1564,7 +1679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1581,14 +1696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>123</v>
       </c>
@@ -1596,7 +1711,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1607,7 +1722,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1618,7 +1733,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1629,7 +1744,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1640,7 +1755,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1651,7 +1766,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1662,7 +1777,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1673,7 +1788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1684,7 +1799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1695,7 +1810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1712,14 +1827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>123</v>
       </c>
@@ -1727,7 +1842,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1738,7 +1853,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1749,7 +1864,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1760,7 +1875,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1771,7 +1886,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1782,7 +1897,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1793,7 +1908,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1804,7 +1919,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1815,7 +1930,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1826,7 +1941,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1835,6 +1950,272 @@
       </c>
       <c r="C11" t="s">
         <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/cp1/zinoview_fb-06_datsenko_fb-06_cp1/tables.xlsx
+++ b/cp1/zinoview_fb-06_datsenko_fb-06_cp1/tables.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\КПІ Season IIl\Крипта\1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B9222-1088-4BF2-AE27-21429AFC0F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Symbols" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <sheet name="Bigrams_step_2" sheetId="5" r:id="rId5"/>
     <sheet name="Bigrams_no_spaces_step_2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -522,8 +516,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,25 +576,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -638,9 +624,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,27 +658,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,27 +692,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -917,14 +867,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -932,7 +882,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -943,7 +893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -954,7 +904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -965,7 +915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -976,7 +926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -987,7 +937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -998,7 +948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1009,7 +959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1020,7 +970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1031,7 +981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1042,7 +992,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1053,7 +1003,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1064,7 +1014,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1075,7 +1025,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1086,7 +1036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1097,7 +1047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1108,7 +1058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1119,7 +1069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,7 +1080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1141,7 +1091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1152,7 +1102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1163,7 +1113,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1174,7 +1124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1185,7 +1135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1196,7 +1146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1207,7 +1157,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1218,7 +1168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1229,7 +1179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1240,7 +1190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1251,7 +1201,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1262,7 +1212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1273,7 +1223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1284,7 +1234,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1295,7 +1245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1312,14 +1262,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>68</v>
       </c>
@@ -1327,7 +1277,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1338,7 +1288,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1349,7 +1299,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1360,7 +1310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1371,7 +1321,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1382,7 +1332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1393,7 +1343,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1404,7 +1354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1415,7 +1365,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1426,7 +1376,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1437,7 +1387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1448,7 +1398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1459,7 +1409,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1470,7 +1420,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1481,7 +1431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1492,7 +1442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1503,7 +1453,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1514,7 +1464,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1525,7 +1475,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1536,7 +1486,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1547,7 +1497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1558,7 +1508,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1569,7 +1519,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1580,7 +1530,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1591,7 +1541,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1602,7 +1552,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1613,7 +1563,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1624,7 +1574,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1635,7 +1585,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1646,7 +1596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1657,7 +1607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1668,7 +1618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1679,7 +1629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1696,14 +1646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>123</v>
       </c>
@@ -1711,7 +1661,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1722,7 +1672,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1733,7 +1683,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1744,7 +1694,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1755,7 +1705,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1766,7 +1716,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1777,7 +1727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1788,7 +1738,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1799,7 +1749,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1810,7 +1760,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1827,14 +1777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>123</v>
       </c>
@@ -1842,7 +1792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1853,7 +1803,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1864,7 +1814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1875,7 +1825,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1886,7 +1836,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1897,7 +1847,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1908,7 +1858,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1919,7 +1869,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1930,7 +1880,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1941,7 +1891,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1958,16 +1908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>123</v>
       </c>
@@ -1975,7 +1923,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1986,7 +1934,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1997,7 +1945,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2008,7 +1956,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2019,7 +1967,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2030,7 +1978,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2041,7 +1989,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2052,7 +2000,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2063,7 +2011,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2074,7 +2022,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2091,16 +2039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>123</v>
       </c>
@@ -2108,7 +2054,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2119,7 +2065,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2130,7 +2076,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2141,7 +2087,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2152,7 +2098,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2163,7 +2109,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2174,7 +2120,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2185,7 +2131,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2196,7 +2142,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2207,7 +2153,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
